--- a/Documents/Plan/Реализация проекта ВДС 22-07-2020.xlsx
+++ b/Documents/Plan/Реализация проекта ВДС 22-07-2020.xlsx
@@ -8,32 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2013\Projects\Work\IDS RailWay\Documents\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D4876C-CA73-4442-A69D-A350B1FC1EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CDAA8D-3AA9-4FE8-92A0-A374F581BC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55DBBE51-06CA-4A9C-AFAA-D5CE3AB420C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="23_07_2020" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>Шуба И.</t>
   </si>
@@ -138,32 +130,6 @@
   </si>
   <si>
     <t xml:space="preserve">Разработка ТЗ по загрузке ЭПД,  Раскредитация вагонов, автоматического расчета ж.д. тарифа по прибытию грузов  и других процессов  при приеме вагонов </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Отставание по графику</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Согласование алгоритмов формирования обмена предполагало большое количество совещаний со специалистами САП но карантин ограничивал эту возможность и согласование происходило по электронной почте,  ожидаем подписания 27.07.2020</t>
-    </r>
   </si>
   <si>
     <t>Идет устранение ошибок при тестировании</t>
@@ -342,12 +308,87 @@
       <t xml:space="preserve"> (Эта опция будет закончена после получения исходных данных по перевескам)</t>
     </r>
   </si>
+  <si>
+    <t>Процесс перемещения вагонов  по ж.д. станциям предприятия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработка ТЗ  по вводу данных, связанных с перемещением вагонов на территории предприятия  </t>
+  </si>
+  <si>
+    <t>Разработка ПО,  подсистема "Перемещением вагонов на территории предприятия".</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>Расчет платы за пользование и времени нахождения вагонов на подъездном пути предприятия</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Разработка ТЗ по расчету платы за пользование и времени нахождения вагонов на подъездном пути предприятия</t>
+  </si>
+  <si>
+    <t>Разработка ПО,  подсистема "Расчет платы за пользование и времени нахождения вагонов на подъездном пути предприятия".</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>2021 год</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Отставание по графику</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Согласование алгоритмов формирования обмена предполагало совещания со специалистами САП, но карантин ограничивал эту возможность и согласование происходило по электронной почте,  ожидаем подписания 27.07.2020</t>
+    </r>
+  </si>
+  <si>
+    <t>Шуба И. 
+Левченко Э.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,8 +432,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +456,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -420,6 +463,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -496,10 +551,6 @@
     <xf numFmtId="17" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,13 +569,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,8 +584,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -572,7 +657,7 @@
         <xdr:cNvPr id="5" name="Прямоугольник 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0670C4-42AC-4CC6-97A5-4C1EBAAD85C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -734,7 +819,7 @@
         <xdr:cNvPr id="4" name="Прямоугольник 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F0C0FF-08C7-4E74-93A9-08F3B9BA4286}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -899,7 +984,7 @@
         <xdr:cNvPr id="6" name="Прямоугольник 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439DF5EF-EE57-4328-A9B5-B0E4E11E299F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1051,8 +1136,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>419099</xdr:rowOff>
     </xdr:to>
@@ -1061,7 +1146,7 @@
         <xdr:cNvPr id="7" name="Прямоугольник 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BC7EBE-F1D9-4E1A-9089-5B21744819C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1069,8 +1154,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4712492" y="1219200"/>
-          <a:ext cx="2831307" cy="342899"/>
+          <a:off x="4769642" y="1028700"/>
+          <a:ext cx="3259933" cy="342899"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1200,8 +1285,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ru-RU"/>
-            <a:t>60%</a:t>
+            <a:t>0%</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1226,7 +1315,7 @@
         <xdr:cNvPr id="9" name="Прямоугольник 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D3DA905-AA71-4E6E-96E8-FACCB07AD982}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1480,7 @@
         <xdr:cNvPr id="10" name="Прямоугольник 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2A5A7D-71C7-4B3D-9A81-7D549DBD368B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +1645,7 @@
         <xdr:cNvPr id="11" name="Прямоугольник 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD03B3E2-8469-4311-B803-013613176BB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1725,7 +1814,7 @@
         <xdr:cNvPr id="14" name="Прямоугольник 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD3CEFB0-B1A5-4D24-B7AB-C86F096A9F25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1976,7 @@
         <xdr:cNvPr id="15" name="Прямоугольник 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C056A2F9-A0E0-4611-8FA2-4A80CFD27270}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2052,7 +2141,7 @@
         <xdr:cNvPr id="16" name="Прямоугольник 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61FE27B-A301-4727-A59D-20D9A3C1A7C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2303,7 @@
         <xdr:cNvPr id="17" name="Прямоугольник 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA99D67-C0D5-4CE5-AD6A-DE7E438F91D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2468,7 @@
         <xdr:cNvPr id="18" name="Прямоугольник 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC055F2-9F9D-401B-90E6-CA8D37E3195E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,22 +2615,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
+      <xdr:colOff>245270</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>214313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>35719</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>390525</xdr:rowOff>
+      <xdr:rowOff>557213</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Прямоугольник 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4345B7E-BEBD-4F22-A6B3-E7267540EC0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2549,8 +2638,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6753226" y="3438525"/>
-          <a:ext cx="723899" cy="342900"/>
+          <a:off x="6829426" y="4333876"/>
+          <a:ext cx="719137" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2691,22 +2780,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>200027</xdr:colOff>
+      <xdr:colOff>211933</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
+      <xdr:colOff>316707</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
+      <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="Прямоугольник 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD3801C-FFA2-487B-A1D7-0C89E4110CD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2714,8 +2803,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7277102" y="5676900"/>
-          <a:ext cx="561974" cy="342900"/>
+          <a:off x="7272339" y="5434013"/>
+          <a:ext cx="557212" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2871,7 +2960,7 @@
         <xdr:cNvPr id="21" name="Прямоугольник 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B302F9DE-94C2-47FE-9459-AE6CB48A18BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,22 +3110,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>199841</xdr:colOff>
+      <xdr:colOff>223654</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>35903</xdr:rowOff>
+      <xdr:rowOff>166872</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>354623</xdr:colOff>
+      <xdr:colOff>378436</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>369277</xdr:rowOff>
+      <xdr:rowOff>500246</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="Прямоугольник 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1109E952-53A9-48C6-B9E6-52741F84960C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,7 +3133,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7270322" y="5684961"/>
+          <a:off x="7284060" y="5429435"/>
           <a:ext cx="154782" cy="333374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3183,22 +3272,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>206713</xdr:colOff>
+      <xdr:colOff>242432</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>50260</xdr:rowOff>
+      <xdr:rowOff>216948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>337038</xdr:colOff>
+      <xdr:colOff>372757</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>385054</xdr:rowOff>
+      <xdr:rowOff>551742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="Прямоугольник 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C6E6C5D-5690-452F-A13F-758E62F5A669}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3295,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6809362" y="4557409"/>
+          <a:off x="6826588" y="4336511"/>
           <a:ext cx="130325" cy="334794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3360,7 +3449,7 @@
         <xdr:cNvPr id="25" name="Прямоугольник 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9187D176-B17F-43E5-A4F6-60E367BFD29F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3525,7 +3614,7 @@
         <xdr:cNvPr id="26" name="Прямоугольник 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7A8F498-C919-4C6E-9627-2E3C5E780311}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3687,7 +3776,7 @@
         <xdr:cNvPr id="27" name="Прямоугольник 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF08EF2-C74B-4BFD-A434-037F1091368A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3847,16 +3936,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:colOff>309562</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>447675</xdr:rowOff>
+      <xdr:rowOff>440531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Прямоугольник 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30903503-CBF2-4363-8412-3F5AB209F6E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3864,8 +3953,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8508208" y="8582025"/>
-          <a:ext cx="692942" cy="333375"/>
+          <a:off x="8491539" y="8579644"/>
+          <a:ext cx="807242" cy="326231"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4009,16 +4098,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>202406</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>446577</xdr:rowOff>
+      <xdr:rowOff>440531</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="Прямоугольник 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C291BCED-FC82-494B-AFC9-1A102DA89ECB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4026,8 +4115,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8512968" y="8586788"/>
-          <a:ext cx="173832" cy="327514"/>
+          <a:off x="8496299" y="8203407"/>
+          <a:ext cx="195263" cy="321468"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4180,7 +4269,7 @@
         <xdr:cNvPr id="31" name="Прямоугольник 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C7F147-7372-487A-8AE8-0AE9A6C1E3D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4342,7 +4431,7 @@
         <xdr:cNvPr id="32" name="Прямоугольник 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DADF4EB7-C68F-4083-BEA6-D527D173ED58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4504,7 +4593,7 @@
         <xdr:cNvPr id="33" name="Прямоугольник 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64A72B0-EC14-4605-BBCD-C1EFF882CA7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4666,7 +4755,7 @@
         <xdr:cNvPr id="34" name="Прямоугольник 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8588AE-0C5C-4970-84DF-490D431A0327}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4805,6 +4894,1640 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11907</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>392906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Прямоугольник 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7546182" y="10946607"/>
+          <a:ext cx="2321718" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ru-RU"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>435768</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>404813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Прямоугольник 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9855993" y="11415714"/>
+          <a:ext cx="916781" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ru-RU"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>392906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Прямоугольник 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306050" y="11853862"/>
+          <a:ext cx="657225" cy="369094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ru-RU"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>392906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Прямоугольник 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10963275" y="12222956"/>
+          <a:ext cx="247650" cy="340519"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ru-RU"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>369094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Прямоугольник 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9858376" y="13006387"/>
+          <a:ext cx="1133474" cy="297657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ru-RU"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>357189</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Прямоугольник 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10977563" y="13799344"/>
+          <a:ext cx="690562" cy="309564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ru-RU"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>392906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Прямоугольник 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="11322844"/>
+          <a:ext cx="607220" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ru-RU"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU"/>
+            <a:t>20%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>385763</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Прямоугольник 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="10491788"/>
+          <a:ext cx="3667125" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ru-RU"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140495</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>357188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Прямоугольник 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7548563" y="10491788"/>
+          <a:ext cx="602457" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ru-RU"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU"/>
+            <a:t>20%</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Прямоугольник 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD44AF6-D56F-4E78-B110-6C46E2808212}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9858376" y="12596813"/>
+          <a:ext cx="1790699" cy="309562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ru-RU"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="ru-RU">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5109,12 +6832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B260CF0A-B33B-42E5-8361-503E907E9D14}">
-  <dimension ref="A1:S21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5144,60 +6867,60 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="22">
         <v>43770</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="22">
         <v>43800</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="22">
         <v>43831</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="22">
         <v>43862</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="22">
         <v>43891</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="22">
         <v>43922</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="22">
         <v>43952</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="22">
         <v>43983</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="23">
         <v>44013</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="22">
         <v>44044</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="22">
         <v>44075</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="22">
         <v>44105</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="22">
         <v>44136</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="22">
         <v>44166</v>
       </c>
       <c r="Q1" s="2">
         <v>44197</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -5211,7 +6934,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -5222,11 +6945,11 @@
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>42</v>
+      <c r="B3" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -5236,22 +6959,22 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="24"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -5261,7 +6984,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="24"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -5271,8 +6994,8 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5282,7 +7005,7 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -5293,10 +7016,10 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5"/>
@@ -5307,8 +7030,8 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="21"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
@@ -5318,10 +7041,10 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="1"/>
@@ -5332,22 +7055,22 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="20"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="10" t="s">
+      <c r="R7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -5361,22 +7084,22 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="20"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="18"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="18" t="s">
-        <v>27</v>
+      <c r="S8" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -5390,26 +7113,26 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="20"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="18"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="10" t="s">
+      <c r="R9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="S9" s="18" t="s">
-        <v>43</v>
+      <c r="S9" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>29</v>
+      <c r="B10" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5419,26 +7142,26 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="20"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S10" s="17" t="s">
-        <v>28</v>
+      <c r="S10" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5448,22 +7171,22 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="20"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S11" s="18" t="s">
-        <v>45</v>
+      <c r="S11" s="16" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -5477,22 +7200,22 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="20"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="10" t="s">
+      <c r="R12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="18" t="s">
-        <v>46</v>
+      <c r="S12" s="16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -5506,22 +7229,22 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="20"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S13" s="17" t="s">
-        <v>28</v>
+      <c r="S13" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5535,24 +7258,24 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="20"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="10" t="s">
-        <v>0</v>
+      <c r="R14" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>3</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>30</v>
+      <c r="B15" s="27" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -5562,10 +7285,10 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="21"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -5573,11 +7296,11 @@
       <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>31</v>
+      <c r="A16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5587,26 +7310,26 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="26"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="20"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="18"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="S16" s="17" t="s">
+      <c r="S16" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>36</v>
+      <c r="A17" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5616,24 +7339,24 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="9"/>
+      <c r="K17" s="26"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="18"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="10" t="s">
+      <c r="R17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="S17" s="17"/>
+      <c r="S17" s="32"/>
     </row>
     <row r="18" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>37</v>
+      <c r="A18" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5643,24 +7366,24 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="9"/>
+      <c r="K18" s="26"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="18"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="10" t="s">
+      <c r="R18" s="8" t="s">
         <v>1</v>
       </c>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>34</v>
+      <c r="A19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -5670,21 +7393,21 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="9"/>
+      <c r="K19" s="26"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="18"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-      <c r="R19" s="10" t="s">
-        <v>41</v>
+      <c r="R19" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>39</v>
+      <c r="A20" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>4</v>
@@ -5697,21 +7420,21 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="9"/>
+      <c r="K20" s="26"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="18"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="9" t="s">
         <v>11</v>
       </c>
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>40</v>
+      <c r="A21" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
@@ -5724,17 +7447,285 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="9"/>
+      <c r="K21" s="26"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="18"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="10" t="s">
+      <c r="R21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>4</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="S21" s="3"/>
+      <c r="S23" s="3"/>
+    </row>
+    <row r="24" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>5</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="1:19" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="S31" s="31" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
